--- a/data/original/Міжбанк та ключова процентна ставка.xlsx
+++ b/data/original/Міжбанк та ключова процентна ставка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levkupybida/Documents/GitHub/MonetaryPolicyEffectOnNetInterestMargins/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3544AE7B-CF3B-914D-BA6A-ADB7D770B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D03724-EA13-4343-8136-D52E33666DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Interbank IR</t>
   </si>
   <si>
     <t>Policy IR</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -395,6 +398,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
